--- a/Checklist/Checklist_2.xlsx
+++ b/Checklist/Checklist_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatyana/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatyana/Desktop/project/Checklist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ED34D22-7CE2-C141-BAFF-6FB401ABB2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A147E992-478F-084C-8555-AF4779B64134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15800" xr2:uid="{F80CAB94-EB84-A34F-A2E6-3DD9ACAF2DD4}"/>
   </bookViews>
@@ -32,6 +32,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>ццуецуец</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +390,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF0A235-46D3-474D-9BC4-C2417EBEABA8}">
-  <dimension ref="A1"/>
+  <dimension ref="H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>